--- a/LanguageDetectionPrototype/Documents/Glossary.xlsx
+++ b/LanguageDetectionPrototype/Documents/Glossary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inesc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inesc\Desktop\Projetos Git\DuckSoftWorks\DuckSoftWorks\LanguageDetectionPrototype\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B06C845C-CB6F-4277-8641-31F1FA1C07A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FE70AD-809E-4238-90A0-B7EEB7E1F1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{235FC9EE-D9E3-49E6-95E0-C435C389101B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Acronym</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>Lucene is a Java library providing powerful indexing and search features, as well as spellchecking, hit highlighting and advanced analysis/tokenization capabilities.</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Spanish</t>
   </si>
 </sst>
 </file>
@@ -240,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C6256B-FEC0-4BA3-85F4-0D6DF0FDF16B}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17" xr:uid="{90C6256B-FEC0-4BA3-85F4-0D6DF0FDF16B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C6256B-FEC0-4BA3-85F4-0D6DF0FDF16B}" name="Table1" displayName="Table1" ref="A1:C20" totalsRowShown="0">
+  <autoFilter ref="A1:C20" xr:uid="{90C6256B-FEC0-4BA3-85F4-0D6DF0FDF16B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
     <sortCondition ref="B1:B17"/>
   </sortState>
@@ -551,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1225BEF3-676C-4E24-8737-736631426F25}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,10 +727,35 @@
         <v>23</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LanguageDetectionPrototype/Documents/Glossary.xlsx
+++ b/LanguageDetectionPrototype/Documents/Glossary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inesc\Desktop\Projetos Git\DuckSoftWorks\DuckSoftWorks\LanguageDetectionPrototype\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Prototype\DuckSoftWorks\LanguageDetectionPrototype\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FE70AD-809E-4238-90A0-B7EEB7E1F1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA721E3-C556-443C-8FFF-71EADC7433F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{235FC9EE-D9E3-49E6-95E0-C435C389101B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{235FC9EE-D9E3-49E6-95E0-C435C389101B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Acronym</t>
   </si>
@@ -172,6 +170,78 @@
   </si>
   <si>
     <t>Spanish</t>
+  </si>
+  <si>
+    <t>Portuguese Language</t>
+  </si>
+  <si>
+    <t>English Language</t>
+  </si>
+  <si>
+    <t>Spanish Language</t>
+  </si>
+  <si>
+    <t>Onion Architecture</t>
+  </si>
+  <si>
+    <t>Onion architecture consists of several concentric layers interacting with each other towards the core, which is the domain. The architecture does not depend on the data layer, as in a traditional three-tier architecture; it depends on real domain models.</t>
+  </si>
+  <si>
+    <t>GRASP</t>
+  </si>
+  <si>
+    <t>General Responsibility Assignment Software Patterns</t>
+  </si>
+  <si>
+    <t>It is a set of nine fundamental principles in object design and responsibility assignment. Consists in: controller, creator, indirection, information expert, low coupling, high cohesion, polymorphism, protected variations, and pure fabrication.</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>Domain Driven Design</t>
+  </si>
+  <si>
+    <t>A software design approach focusing on modelling software to match a domain according to input of experts in that domain.</t>
+  </si>
+  <si>
+    <t>SOLID</t>
+  </si>
+  <si>
+    <t>A mnemonic acronym for five design principles intended to make object-oriented designs more understandable, flexible, and maintainable. </t>
+  </si>
+  <si>
+    <t>HCLC</t>
+  </si>
+  <si>
+    <t>High Cohesion Low Coupling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In essence, high cohesion means keeping parts of a code base that are related to each other in a single place. Low coupling, at the same time, is about separating unrelated parts of the code base as much as possible. </t>
+  </si>
+  <si>
+    <t>RESTful API</t>
+  </si>
+  <si>
+    <t>Representational State Transfer API</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Application Program Interface</t>
+  </si>
+  <si>
+    <t>A RESTful API is an architectural style for an application program interface (API) that uses HTTP requests to access and use data. That data can be used to GET, PUT, POST and DELETE (and others) data types, which refers to the reading, updating, creating and deleting of operations concerning resources.</t>
+  </si>
+  <si>
+    <t>A software intermediary that allows two applications to talk to each other.</t>
+  </si>
+  <si>
+    <t>SpringBoot</t>
+  </si>
+  <si>
+    <t>Spring Boot is an open source, microservice-based Java web framework. The Spring Boot framework creates a fully production-ready environment that is completely configurable using its prebuilt code within its codebase.</t>
   </si>
 </sst>
 </file>
@@ -258,10 +328,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C6256B-FEC0-4BA3-85F4-0D6DF0FDF16B}" name="Table1" displayName="Table1" ref="A1:C20" totalsRowShown="0">
-  <autoFilter ref="A1:C20" xr:uid="{90C6256B-FEC0-4BA3-85F4-0D6DF0FDF16B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
-    <sortCondition ref="B1:B17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C6256B-FEC0-4BA3-85F4-0D6DF0FDF16B}" name="Table1" displayName="Table1" ref="A1:C28" totalsRowShown="0">
+  <autoFilter ref="A1:C28" xr:uid="{90C6256B-FEC0-4BA3-85F4-0D6DF0FDF16B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+    <sortCondition ref="B1:B28"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B4CD73ED-B1EA-4F09-88F0-E8D27D2C3D39}" name="Acronym" dataDxfId="1"/>
@@ -273,7 +343,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -569,20 +639,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1225BEF3-676C-4E24-8737-736631426F25}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -601,154 +671,245 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="16" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
